--- a/results/mp/logistic/corona/confidence/210/0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,21 +55,21 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>panic</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -85,178 +85,193 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>on</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
+    <t>giving</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
     <t>your</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>all</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>,</t>
   </si>
   <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
     <t>are</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -614,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,7 +640,7 @@
         <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7842465753424658</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="C3">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +772,13 @@
         <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -807,13 +822,13 @@
         <v>35</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8846153846153846</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5294117647058824</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4497354497354497</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8720626631853786</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L9">
-        <v>334</v>
+        <v>49</v>
       </c>
       <c r="M9">
-        <v>334</v>
+        <v>49</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4406779661016949</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8301886792452831</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4244186046511628</v>
+        <v>0.436046511627907</v>
       </c>
       <c r="C11">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D11">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8203125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L11">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="M11">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3454545454545455</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.8067885117493473</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>309</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3154362416107382</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>0.80625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1248,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3066666666666666</v>
+        <v>0.28</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7948717948717948</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2416666666666667</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="C15">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1316,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1348,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1428571428571428</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1366,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1398,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.06970509383378017</v>
+        <v>0.09115281501340483</v>
       </c>
       <c r="C17">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1416,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7758620689655172</v>
+        <v>0.765625</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,37 +1448,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01771479185119575</v>
+        <v>0.01781665046971169</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E18">
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="F18">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1109</v>
+        <v>3032</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K18">
-        <v>0.7575757575757576</v>
+        <v>0.7625</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,37 +1498,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01686668829062601</v>
+        <v>0.01678445229681979</v>
       </c>
       <c r="C19">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="F19">
-        <v>0.6799999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>3031</v>
+        <v>1113</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,37 +1548,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0157312925170068</v>
+        <v>0.01441899915182358</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E20">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="F20">
-        <v>0.5800000000000001</v>
+        <v>0.62</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2315</v>
+        <v>2324</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K20">
-        <v>0.746031746031746</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,37 +1598,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01413094677343382</v>
+        <v>0.01222378937470616</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="F21">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>2093</v>
+        <v>2101</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>0.7446808510638298</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,37 +1648,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01182033096926714</v>
+        <v>0.009831906121154456</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E22">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="F22">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>5016</v>
+        <v>3122</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>0.7407407407407407</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1675,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,37 +1698,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.00892018779342723</v>
+        <v>0.009370543898961092</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="E23">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F23">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4222</v>
+        <v>4863</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>0.675</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1733,37 +1748,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.008771929824561403</v>
+        <v>0.009235606209471409</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="D24">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="E24">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="F24">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>2260</v>
+        <v>5042</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K24">
-        <v>0.6511627906976745</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,37 +1798,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.007939028262940616</v>
+        <v>0.009210526315789473</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>0.68</v>
+        <v>0.58</v>
       </c>
       <c r="F25">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3124</v>
+        <v>2259</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6411764705882353</v>
+        <v>0.68</v>
       </c>
       <c r="L25">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,37 +1848,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007115267330758284</v>
+        <v>0.00842893935846406</v>
       </c>
       <c r="C26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E26">
-        <v>0.6899999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="F26">
-        <v>0.3100000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4884</v>
+        <v>4235</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K26">
-        <v>0.64</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1883,13 +1898,13 @@
         <v>57</v>
       </c>
       <c r="K27">
-        <v>0.6307692307692307</v>
+        <v>0.65</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1901,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1909,13 +1924,13 @@
         <v>58</v>
       </c>
       <c r="K28">
-        <v>0.6285714285714286</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1927,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1935,13 +1950,13 @@
         <v>59</v>
       </c>
       <c r="K29">
-        <v>0.6060606060606061</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1953,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1961,13 +1976,13 @@
         <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5966101694915255</v>
+        <v>0.6</v>
       </c>
       <c r="L30">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1979,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1987,25 +2002,25 @@
         <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5798319327731093</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L31">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="M31">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="N31">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2013,13 +2028,13 @@
         <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5638297872340425</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L32">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="M32">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2031,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2039,13 +2054,13 @@
         <v>63</v>
       </c>
       <c r="K33">
-        <v>0.5571428571428572</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2057,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2065,13 +2080,13 @@
         <v>64</v>
       </c>
       <c r="K34">
-        <v>0.5393258426966292</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L34">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M34">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2083,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2091,13 +2106,13 @@
         <v>65</v>
       </c>
       <c r="K35">
-        <v>0.5294117647058824</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2109,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2117,25 +2132,25 @@
         <v>66</v>
       </c>
       <c r="K36">
-        <v>0.5</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="L36">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2143,25 +2158,25 @@
         <v>67</v>
       </c>
       <c r="K37">
-        <v>0.4634146341463415</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2169,13 +2184,13 @@
         <v>68</v>
       </c>
       <c r="K38">
-        <v>0.3972602739726027</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2187,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2195,13 +2210,13 @@
         <v>69</v>
       </c>
       <c r="K39">
-        <v>0.3559322033898305</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2213,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2221,13 +2236,13 @@
         <v>70</v>
       </c>
       <c r="K40">
-        <v>0.05484460694698354</v>
+        <v>0.375</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2239,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>517</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2247,25 +2262,25 @@
         <v>71</v>
       </c>
       <c r="K41">
-        <v>0.05254378648874062</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L41">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="N41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1136</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2273,25 +2288,25 @@
         <v>72</v>
       </c>
       <c r="K42">
-        <v>0.03549695740365112</v>
+        <v>0.05860805860805861</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M42">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N42">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>951</v>
+        <v>514</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2299,25 +2314,25 @@
         <v>73</v>
       </c>
       <c r="K43">
-        <v>0.02670176758179767</v>
+        <v>0.05175292153589316</v>
       </c>
       <c r="L43">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M43">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="N43">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.16</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2588</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2325,25 +2340,25 @@
         <v>74</v>
       </c>
       <c r="K44">
-        <v>0.02111111111111111</v>
+        <v>0.03512014787430684</v>
       </c>
       <c r="L44">
         <v>19</v>
       </c>
       <c r="M44">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>881</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2351,25 +2366,25 @@
         <v>75</v>
       </c>
       <c r="K45">
-        <v>0.02060156571899464</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="L45">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="N45">
-        <v>0.74</v>
+        <v>0.86</v>
       </c>
       <c r="O45">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>2377</v>
+        <v>952</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2377,25 +2392,25 @@
         <v>76</v>
       </c>
       <c r="K46">
-        <v>0.01954652071931196</v>
+        <v>0.02610966057441253</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N46">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="O46">
-        <v>0.29</v>
+        <v>0.17</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1254</v>
+        <v>746</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2403,311 +2418,415 @@
         <v>77</v>
       </c>
       <c r="K47">
-        <v>0.01831964624131396</v>
+        <v>0.0258349086326402</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M47">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N47">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="O47">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1554</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>0.01743388834476004</v>
+        <v>0.02368421052631579</v>
       </c>
       <c r="L48">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="M48">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="N48">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="O48">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>5016</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.01697416974169742</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>1332</v>
+        <v>881</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.01675977653631285</v>
+        <v>0.0204935173567545</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M50">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N50">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>2112</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.0163727959697733</v>
+        <v>0.01975308641975309</v>
       </c>
       <c r="L51">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M51">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="N51">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="O51">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>3124</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.01590623691921306</v>
+        <v>0.01970954356846473</v>
       </c>
       <c r="L52">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>0.88</v>
+        <v>0.83</v>
       </c>
       <c r="O52">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2351</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.01585081585081585</v>
+        <v>0.0192492781520693</v>
       </c>
       <c r="L53">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M53">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="N53">
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
       <c r="O53">
-        <v>0.36</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>4222</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="K54">
-        <v>0.01552106430155211</v>
+        <v>0.01913205786280914</v>
       </c>
       <c r="L54">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="M54">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="N54">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="O54">
-        <v>0.3100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4884</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.0126692878986457</v>
+        <v>0.01805337519623234</v>
       </c>
       <c r="L55">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N55">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="O55">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>2260</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K56">
-        <v>0.01152860802732707</v>
+        <v>0.01757575757575757</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M56">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="N56">
-        <v>0.42</v>
+        <v>0.65</v>
       </c>
       <c r="O56">
-        <v>0.5800000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2315</v>
+        <v>4863</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K57">
-        <v>0.00946521533364884</v>
+        <v>0.01514195583596215</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M57">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="N57">
-        <v>0.4</v>
+        <v>0.61</v>
       </c>
       <c r="O57">
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>2093</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K58">
-        <v>0.007855973813420621</v>
+        <v>0.01484955060570535</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="M58">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="N58">
-        <v>0.32</v>
+        <v>0.62</v>
       </c>
       <c r="O58">
-        <v>0.6799999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>3031</v>
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K59">
+        <v>0.01328052190121156</v>
+      </c>
+      <c r="L59">
+        <v>57</v>
+      </c>
+      <c r="M59">
+        <v>93</v>
+      </c>
+      <c r="N59">
+        <v>0.61</v>
+      </c>
+      <c r="O59">
+        <v>0.39</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60">
+        <v>0.01267482517482517</v>
+      </c>
+      <c r="L60">
+        <v>29</v>
+      </c>
+      <c r="M60">
+        <v>50</v>
+      </c>
+      <c r="N60">
+        <v>0.58</v>
+      </c>
+      <c r="O60">
+        <v>0.42</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>0.008955223880597015</v>
+      </c>
+      <c r="L61">
+        <v>21</v>
+      </c>
+      <c r="M61">
+        <v>55</v>
+      </c>
+      <c r="N61">
+        <v>0.38</v>
+      </c>
+      <c r="O61">
+        <v>0.62</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K62">
+        <v>0.00655307994757536</v>
+      </c>
+      <c r="L62">
+        <v>20</v>
+      </c>
+      <c r="M62">
+        <v>75</v>
+      </c>
+      <c r="N62">
+        <v>0.27</v>
+      </c>
+      <c r="O62">
+        <v>0.73</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>3032</v>
       </c>
     </row>
   </sheetData>
